--- a/요구사항명세서/요구사항 명세서.xlsx
+++ b/요구사항명세서/요구사항 명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\human\팀 프로젝트\meeting-log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\human\팀 프로젝트\meeting-log\요구사항명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="요구사항정의서" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$2:$H$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="173">
   <si>
     <t>유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +701,10 @@
   </si>
   <si>
     <t>Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +712,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,8 +745,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,7 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,30 +830,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,79 +1141,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="9" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -1197,24 +1209,24 @@
         <v>94</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -1223,24 +1235,24 @@
         <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -1249,24 +1261,24 @@
         <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
@@ -1275,50 +1287,50 @@
         <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>104</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -1327,24 +1339,24 @@
         <v>95</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
@@ -1353,76 +1365,76 @@
         <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
@@ -1431,24 +1443,24 @@
         <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
@@ -1457,24 +1469,24 @@
         <v>95</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>23</v>
@@ -1483,50 +1495,50 @@
         <v>95</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>42</v>
@@ -1535,50 +1547,50 @@
         <v>95</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>46</v>
@@ -1587,24 +1599,24 @@
         <v>95</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>46</v>
@@ -1613,24 +1625,24 @@
         <v>95</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>46</v>
@@ -1639,24 +1651,24 @@
         <v>95</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>46</v>
@@ -1665,50 +1677,50 @@
         <v>95</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>63</v>
@@ -1717,24 +1729,24 @@
         <v>95</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>63</v>
@@ -1743,24 +1755,24 @@
         <v>95</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>63</v>
@@ -1769,50 +1781,50 @@
         <v>95</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>78</v>
@@ -1821,24 +1833,24 @@
         <v>95</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>78</v>
@@ -1847,101 +1859,130 @@
         <v>95</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H32"/>
+  <autoFilter ref="A2:H33"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
